--- a/papers_processed/Paper21_data.xlsx
+++ b/papers_processed/Paper21_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9C3715-1BA7-4A37-ABE0-787A0CE995CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C73124-D160-4D31-A683-19AF98CF6206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC24F7AA-2D62-8646-ABB8-BB9B97F64203}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC24F7AA-2D62-8646-ABB8-BB9B97F64203}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,36 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -89,16 +69,28 @@
     <t>Cereals (Wheat, Maize, Rice)</t>
   </si>
   <si>
-    <t>Sandy Soil</t>
-  </si>
-  <si>
     <t>crop_yield</t>
   </si>
   <si>
-    <t>Loam/Clay Soil</t>
-  </si>
-  <si>
     <t>soil type</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selection type</t>
+  </si>
+  <si>
+    <t>farming practice</t>
+  </si>
+  <si>
+    <t>Loamy</t>
+  </si>
+  <si>
+    <t>Clay</t>
   </si>
 </sst>
 </file>
@@ -489,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5699D31C-15F3-704F-AA25-E354F885153B}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,60 +511,60 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="5">
         <v>0.11799999999999999</v>
@@ -581,36 +573,36 @@
         <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -619,13 +611,51 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/papers_processed/Paper21_data.xlsx
+++ b/papers_processed/Paper21_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C73124-D160-4D31-A683-19AF98CF6206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE3FAF0-0975-4593-BFD1-B4A8B92BABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC24F7AA-2D62-8646-ABB8-BB9B97F64203}"/>
+    <workbookView xWindow="31530" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{DC24F7AA-2D62-8646-ABB8-BB9B97F64203}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>doi</t>
   </si>
@@ -36,9 +36,6 @@
     <t>results_detailed</t>
   </si>
   <si>
-    <t>results_actual_percentage</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -72,25 +69,25 @@
     <t>crop_yield</t>
   </si>
   <si>
-    <t>soil type</t>
-  </si>
-  <si>
-    <t>Sandy</t>
-  </si>
-  <si>
     <t>selection</t>
   </si>
   <si>
-    <t>selection type</t>
-  </si>
-  <si>
-    <t>farming practice</t>
-  </si>
-  <si>
-    <t>Loamy</t>
-  </si>
-  <si>
-    <t>Clay</t>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>selection_type</t>
+  </si>
+  <si>
+    <t>farming_practice</t>
+  </si>
+  <si>
+    <t>"+11.8"</t>
+  </si>
+  <si>
+    <t>results_actual</t>
+  </si>
+  <si>
+    <t>soil_type</t>
   </si>
 </sst>
 </file>
@@ -138,13 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -481,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5699D31C-15F3-704F-AA25-E354F885153B}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,158 +497,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
+      <c r="I2" s="2">
+        <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="L2" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="I3" s="4">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
